--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan.santosde\Desktop\TooLate\Jave EE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan.santosde\Desktop\TooLate\Jave EE\JEE-ConnectTo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>test condition</t>
   </si>
@@ -77,9 +77,6 @@
     <t>role</t>
   </si>
   <si>
-    <t xml:space="preserve">User </t>
-  </si>
-  <si>
     <t>TS-02</t>
   </si>
   <si>
@@ -119,7 +116,43 @@
     <t>User in group Admin</t>
   </si>
   <si>
-    <t>Group can only pieces of nav bar</t>
+    <t>Security of the roles</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>TS-03</t>
+  </si>
+  <si>
+    <t>TS-03T1</t>
+  </si>
+  <si>
+    <t>TS-03T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can search  </t>
+  </si>
+  <si>
+    <t>Search valid</t>
+  </si>
+  <si>
+    <t>Search invalid</t>
+  </si>
+  <si>
+    <t>Search input</t>
+  </si>
+  <si>
+    <t>finds services S-01</t>
+  </si>
+  <si>
+    <t>S-01</t>
+  </si>
+  <si>
+    <t>finds nothing</t>
+  </si>
+  <si>
+    <t>S-1</t>
   </si>
 </sst>
 </file>
@@ -168,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -207,15 +240,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -262,11 +286,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -274,23 +318,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,22 +660,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D30"/>
+  <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -630,9 +687,18 @@
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="F2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -641,18 +707,32 @@
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -661,23 +741,40 @@
       <c r="D5" s="6">
         <v>1234</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
+      <c r="F5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="D7" s="16"/>
+      <c r="F7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -686,18 +783,32 @@
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
+      <c r="F8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -706,45 +817,62 @@
       <c r="D10" s="6">
         <v>1234</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="F10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="D12" s="18"/>
+      <c r="F12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
@@ -753,43 +881,43 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="5" t="s">
         <v>7</v>
       </c>
@@ -798,43 +926,43 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="5" t="s">
         <v>7</v>
       </c>
@@ -843,31 +971,39 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="2:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="16"/>
+      <c r="C30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
